--- a/Testcase_Template.xlsx
+++ b/Testcase_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gits\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C715DE-E5A2-40B4-AE5F-9201D3673163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Template Example" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="145">
   <si>
     <t>Your Company LOGO</t>
   </si>
@@ -113,11 +114,472 @@
   <si>
     <t>Student must be able to register successfully with valid credentials</t>
   </si>
+  <si>
+    <t>Successfully Registered</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Bejesh Sriram</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TS_002 Verify registration of a new student with invalid details.</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in Last Name, Email, Contact Number, Password, confirm password, select Role, Branch, Gender except First name and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Filling invalid First name 
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>Student should not be able to register successfully due to 
+disabled submit button.</t>
+  </si>
+  <si>
+    <t>Sai Kutthalingam S</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>Verify the lastname field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Any browser should be installed at user side
+2. A good internet connection is needed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in lastname field
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Invalid last name</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>It need to display: 
+valid last name</t>
+  </si>
+  <si>
+    <t>`s`</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>Verify the email field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in email field
+</t>
+  </si>
+  <si>
+    <t>It need to display: 
+Invalid email id</t>
+  </si>
+  <si>
+    <t>`sai`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Invalid email id</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>empty string</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>`saiakash12345678910
+11121314151`</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>It need to display: 
+valid email id</t>
+  </si>
+  <si>
+    <t>sai.kutthalingam
+@changepond.com</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Verify the contact number field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in contact number field
+</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Verify the password field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in password field
+</t>
+  </si>
+  <si>
+    <t>It need to display: 
+Invalid password</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>akash12345678910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Invalid password</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>akash@123</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>SAKASH@124</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>Saiakash125</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Verify the confirm password field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in confirm password field
+</t>
+  </si>
+  <si>
+    <t>It need to display: 
+password doesn’t match</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+password doesn’t match</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>sai123</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>Verify the select role field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in select role field
+</t>
+  </si>
+  <si>
+    <t>It need to display: 
+Please fill out this field</t>
+  </si>
+  <si>
+    <t>not select any role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please fill out this field</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>Verify the select branch field in sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click sign up and select student option
+5. Give necessary value in select branch field
+</t>
+  </si>
+  <si>
+    <t>not select any branch</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>It need to display: 
+enter value is not a branch state (or) city</t>
+  </si>
+  <si>
+    <t>csk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+valid</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the email address field in login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click login
+5. Give necessary value in email address field
+</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>saiakash12345678910111213141516</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>saikutthalingam@changepond.com</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the password field in login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click login
+5. Give necessary value in password field
+</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>saiA</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Voucher Code</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the enter voucher code field in login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open user device
+2. Open browser
+3. Type hematite quiz and click on the url and click the link
+4. Click login
+5. Give necessary value in enter voucher code field
+</t>
+  </si>
+  <si>
+    <t>It need to display: 
+Invalid Voucher</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh288
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>First Name : 
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh288
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>Disabled submit button.</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Email, Contact Number, Password, confirm password, select Role, Branch, Gender except Last name and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Filling invalid Last name 
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : 
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh288
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Last Name, Contact Number, Password, confirm password, select Role, Branch, Gender except Email and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Filling invalid Email 
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email: 
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh288
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -128,6 +590,7 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -139,6 +602,7 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -155,10 +619,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -167,10 +633,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -186,21 +654,25 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -218,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -318,6 +790,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF5B3F86"/>
@@ -325,9 +832,7 @@
       <top style="thin">
         <color rgb="FF442F65"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -340,9 +845,7 @@
       <top style="thin">
         <color rgb="FF442F65"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -355,123 +858,6 @@
       <top style="thin">
         <color rgb="FF442F65"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -479,8 +865,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,69 +926,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +983,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Test Case Template Example-style" pivot="0" count="2">
+    <tableStyle name="Test Case Template Example-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
@@ -645,40 +1000,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A10:L11" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A10:L41" headerRowCount="0">
   <tableColumns count="12">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
   </tableColumns>
   <tableStyleInfo name="Test Case Template Example-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -702,79 +1057,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,33 +1212,35 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" customWidth="1"/>
+    <col min="7" max="7" width="65.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="14" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -961,7 +1258,7 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1022,28 +1319,28 @@
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,2620 +1370,4135 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="35"/>
+      <c r="H11" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="35">
+        <v>910</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="35">
+        <v>934033590</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="35">
+        <v>93604459111</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="35">
+        <v>123</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="35"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="35"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="35"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="35"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="35"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="35"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="35"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="35"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="35"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="35"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="35"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="35"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="35"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="35"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="35"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="35"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" s="35"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="35"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="35"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="35"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="24"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="35"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="35"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="35"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="35"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="35"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="35"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="35"/>
+      <c r="I57" s="24"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="35"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="35"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="35"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="35"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="35"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="35"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="35"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="35"/>
+      <c r="I61" s="24"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="35"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="35"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="35"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="35"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="35"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="35"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="35"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="35"/>
+      <c r="I65" s="24"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="35"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="35"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="35"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="35"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="35"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="35"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="35"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="35"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="35"/>
+      <c r="I70" s="24"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="35"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="24"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="35"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="35"/>
+      <c r="I72" s="24"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="35"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="35"/>
+      <c r="I73" s="24"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="35"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="35"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="35"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="35"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="35"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="35"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="35"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="35"/>
+      <c r="I77" s="24"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="35"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="35"/>
+      <c r="I78" s="24"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="35"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="35"/>
+      <c r="I79" s="24"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="35"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="35"/>
+      <c r="I80" s="24"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="35"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="35"/>
+      <c r="I81" s="24"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="35"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="24"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="35"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="24"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="35"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="35"/>
+      <c r="I84" s="24"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="35"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="35"/>
+      <c r="I85" s="24"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="35"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="35"/>
+      <c r="I86" s="24"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="35"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="35"/>
+      <c r="I87" s="24"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="35"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="35"/>
+      <c r="I88" s="24"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="35"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="35"/>
+      <c r="I89" s="24"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="35"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="35"/>
+      <c r="I90" s="24"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="35"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="24"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="35"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="35"/>
+      <c r="I92" s="24"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="35"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
-      <c r="I93" s="35"/>
+      <c r="I93" s="24"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="35"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-      <c r="B95" s="35"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="35"/>
+      <c r="I95" s="24"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="35"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="24"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="35"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="35"/>
+      <c r="I97" s="24"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="35"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="35"/>
+      <c r="I98" s="24"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="35"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="35"/>
+      <c r="I99" s="24"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="35"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="35"/>
+      <c r="I100" s="24"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="35"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
-      <c r="I101" s="35"/>
+      <c r="I101" s="24"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="35"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
-      <c r="I102" s="35"/>
+      <c r="I102" s="24"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="35"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
-      <c r="I103" s="35"/>
+      <c r="I103" s="24"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="35"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
-      <c r="I104" s="35"/>
+      <c r="I104" s="24"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
-      <c r="B105" s="35"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
-      <c r="I105" s="35"/>
+      <c r="I105" s="24"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
-      <c r="B106" s="35"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
-      <c r="I106" s="35"/>
+      <c r="I106" s="24"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
-      <c r="B107" s="35"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="35"/>
+      <c r="I107" s="24"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="35"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="35"/>
+      <c r="I108" s="24"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="35"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="35"/>
+      <c r="I109" s="24"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
-      <c r="B110" s="35"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="35"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
-      <c r="B111" s="35"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="35"/>
+      <c r="I111" s="24"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
-      <c r="B112" s="35"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="35"/>
+      <c r="I112" s="24"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-      <c r="B113" s="35"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="35"/>
+      <c r="I113" s="24"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
-      <c r="B114" s="35"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="35"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
-      <c r="B115" s="35"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
-      <c r="I115" s="35"/>
+      <c r="I115" s="24"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" s="35"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="35"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
-      <c r="B117" s="35"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="35"/>
+      <c r="I117" s="24"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="35"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="35"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
-      <c r="B119" s="35"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="35"/>
+      <c r="I119" s="24"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
-      <c r="B120" s="35"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="35"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
-      <c r="B121" s="35"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="35"/>
+      <c r="I121" s="24"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="35"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="35"/>
+      <c r="I122" s="24"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
-      <c r="B123" s="35"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
-      <c r="I123" s="35"/>
+      <c r="I123" s="24"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
-      <c r="B124" s="35"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
-      <c r="I124" s="35"/>
+      <c r="I124" s="24"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
-      <c r="B125" s="35"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
-      <c r="I125" s="35"/>
+      <c r="I125" s="24"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
-      <c r="B126" s="35"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
-      <c r="I126" s="35"/>
+      <c r="I126" s="24"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
-      <c r="B127" s="35"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
-      <c r="I127" s="35"/>
+      <c r="I127" s="24"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="35"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="35"/>
+      <c r="I128" s="24"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
-      <c r="B129" s="35"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
-      <c r="I129" s="35"/>
+      <c r="I129" s="24"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
-      <c r="B130" s="35"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
-      <c r="I130" s="35"/>
+      <c r="I130" s="24"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-      <c r="B131" s="35"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="35"/>
+      <c r="I131" s="24"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
-      <c r="B132" s="35"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="35"/>
+      <c r="I132" s="24"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
-      <c r="B133" s="35"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="35"/>
+      <c r="I133" s="24"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="35"/>
+      <c r="B134" s="24"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
-      <c r="I134" s="35"/>
+      <c r="I134" s="24"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
-      <c r="B135" s="35"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="35"/>
+      <c r="I135" s="24"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
-      <c r="B136" s="35"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
-      <c r="I136" s="35"/>
+      <c r="I136" s="24"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
-      <c r="B137" s="35"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
-      <c r="I137" s="35"/>
+      <c r="I137" s="24"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-      <c r="B138" s="35"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
-      <c r="I138" s="35"/>
+      <c r="I138" s="24"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
-      <c r="B139" s="35"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
-      <c r="I139" s="35"/>
+      <c r="I139" s="24"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="35"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
-      <c r="I140" s="35"/>
+      <c r="I140" s="24"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
-      <c r="B141" s="35"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
-      <c r="I141" s="35"/>
+      <c r="I141" s="24"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
-      <c r="B142" s="35"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
-      <c r="I142" s="35"/>
+      <c r="I142" s="24"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
-      <c r="B143" s="35"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
-      <c r="I143" s="35"/>
+      <c r="I143" s="24"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
-      <c r="B144" s="35"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
-      <c r="I144" s="35"/>
+      <c r="I144" s="24"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
-      <c r="B145" s="35"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
-      <c r="I145" s="35"/>
+      <c r="I145" s="24"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
-      <c r="B146" s="35"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="35"/>
+      <c r="I146" s="24"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
-      <c r="B147" s="35"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
-      <c r="I147" s="35"/>
+      <c r="I147" s="24"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
-      <c r="B148" s="35"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
-      <c r="I148" s="35"/>
+      <c r="I148" s="24"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
-      <c r="B149" s="35"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
-      <c r="I149" s="35"/>
+      <c r="I149" s="24"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
-      <c r="B150" s="35"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
-      <c r="I150" s="35"/>
+      <c r="I150" s="24"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
-      <c r="B151" s="35"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
-      <c r="I151" s="35"/>
+      <c r="I151" s="24"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
-      <c r="B152" s="35"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="35"/>
+      <c r="I152" s="24"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
-      <c r="B153" s="35"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
-      <c r="I153" s="35"/>
+      <c r="I153" s="24"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
-      <c r="B154" s="35"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
-      <c r="I154" s="35"/>
+      <c r="I154" s="24"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
-      <c r="B155" s="35"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
-      <c r="I155" s="35"/>
+      <c r="I155" s="24"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
-      <c r="B156" s="35"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="35"/>
+      <c r="I156" s="24"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
-      <c r="B157" s="35"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
-      <c r="I157" s="35"/>
+      <c r="I157" s="24"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-      <c r="B158" s="35"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="35"/>
+      <c r="I158" s="24"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="B159" s="35"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
-      <c r="I159" s="35"/>
+      <c r="I159" s="24"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
-      <c r="B160" s="35"/>
+      <c r="B160" s="24"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
-      <c r="I160" s="35"/>
+      <c r="I160" s="24"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
-      <c r="B161" s="35"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
-      <c r="I161" s="35"/>
+      <c r="I161" s="24"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
-      <c r="B162" s="35"/>
+      <c r="B162" s="24"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
-      <c r="I162" s="35"/>
+      <c r="I162" s="24"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
-      <c r="B163" s="35"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
-      <c r="I163" s="35"/>
+      <c r="I163" s="24"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
-      <c r="B164" s="35"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
-      <c r="I164" s="35"/>
+      <c r="I164" s="24"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
-      <c r="B165" s="35"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
-      <c r="I165" s="35"/>
+      <c r="I165" s="24"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
-      <c r="B166" s="35"/>
+      <c r="B166" s="24"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
-      <c r="I166" s="35"/>
+      <c r="I166" s="24"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
-      <c r="B167" s="35"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
-      <c r="I167" s="35"/>
+      <c r="I167" s="24"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
-      <c r="B168" s="35"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
-      <c r="I168" s="35"/>
+      <c r="I168" s="24"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
-      <c r="B169" s="35"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
-      <c r="I169" s="35"/>
+      <c r="I169" s="24"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
-      <c r="B170" s="35"/>
+      <c r="B170" s="24"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
-      <c r="I170" s="35"/>
+      <c r="I170" s="24"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
-      <c r="B171" s="35"/>
+      <c r="B171" s="24"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="35"/>
+      <c r="I171" s="24"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
-      <c r="B172" s="35"/>
+      <c r="B172" s="24"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
-      <c r="I172" s="35"/>
+      <c r="I172" s="24"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
-      <c r="B173" s="35"/>
+      <c r="B173" s="24"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
-      <c r="I173" s="35"/>
+      <c r="I173" s="24"/>
       <c r="J173" s="5"/>
     </row>
     <row r="174" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
-      <c r="B174" s="35"/>
+      <c r="B174" s="24"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
-      <c r="I174" s="35"/>
+      <c r="I174" s="24"/>
       <c r="J174" s="5"/>
     </row>
     <row r="175" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
-      <c r="B175" s="35"/>
+      <c r="B175" s="24"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
-      <c r="I175" s="35"/>
+      <c r="I175" s="24"/>
       <c r="J175" s="5"/>
     </row>
     <row r="176" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
-      <c r="B176" s="35"/>
+      <c r="B176" s="24"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="35"/>
+      <c r="I176" s="24"/>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
-      <c r="B177" s="35"/>
+      <c r="B177" s="24"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
-      <c r="I177" s="35"/>
+      <c r="I177" s="24"/>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
-      <c r="B178" s="35"/>
+      <c r="B178" s="24"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
-      <c r="I178" s="35"/>
+      <c r="I178" s="24"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
-      <c r="B179" s="35"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
-      <c r="I179" s="35"/>
+      <c r="I179" s="24"/>
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
-      <c r="B180" s="35"/>
+      <c r="B180" s="24"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
-      <c r="I180" s="35"/>
+      <c r="I180" s="24"/>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
-      <c r="B181" s="35"/>
+      <c r="B181" s="24"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
-      <c r="I181" s="35"/>
+      <c r="I181" s="24"/>
       <c r="J181" s="5"/>
     </row>
     <row r="182" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
-      <c r="B182" s="35"/>
+      <c r="B182" s="24"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="35"/>
+      <c r="I182" s="24"/>
       <c r="J182" s="5"/>
     </row>
     <row r="183" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
-      <c r="B183" s="35"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
-      <c r="I183" s="35"/>
+      <c r="I183" s="24"/>
       <c r="J183" s="5"/>
     </row>
     <row r="184" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
-      <c r="B184" s="35"/>
+      <c r="B184" s="24"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
-      <c r="I184" s="35"/>
+      <c r="I184" s="24"/>
       <c r="J184" s="5"/>
     </row>
     <row r="185" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
-      <c r="B185" s="35"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
-      <c r="I185" s="35"/>
+      <c r="I185" s="24"/>
       <c r="J185" s="5"/>
     </row>
     <row r="186" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
-      <c r="B186" s="35"/>
+      <c r="B186" s="24"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
-      <c r="I186" s="35"/>
+      <c r="I186" s="24"/>
       <c r="J186" s="5"/>
     </row>
     <row r="187" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
-      <c r="B187" s="35"/>
+      <c r="B187" s="24"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
-      <c r="I187" s="35"/>
+      <c r="I187" s="24"/>
       <c r="J187" s="5"/>
     </row>
     <row r="188" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
-      <c r="B188" s="35"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
-      <c r="I188" s="35"/>
+      <c r="I188" s="24"/>
       <c r="J188" s="5"/>
     </row>
     <row r="189" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
-      <c r="B189" s="35"/>
+      <c r="B189" s="24"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
-      <c r="I189" s="35"/>
+      <c r="I189" s="24"/>
       <c r="J189" s="5"/>
     </row>
     <row r="190" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
-      <c r="B190" s="35"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
-      <c r="I190" s="35"/>
+      <c r="I190" s="24"/>
       <c r="J190" s="5"/>
     </row>
     <row r="191" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
-      <c r="B191" s="35"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
-      <c r="I191" s="35"/>
+      <c r="I191" s="24"/>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
-      <c r="B192" s="35"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="35"/>
+      <c r="I192" s="24"/>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
-      <c r="B193" s="35"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="35"/>
+      <c r="I193" s="24"/>
       <c r="J193" s="5"/>
     </row>
     <row r="194" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
-      <c r="B194" s="35"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="35"/>
+      <c r="I194" s="24"/>
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
-      <c r="B195" s="35"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="35"/>
+      <c r="I195" s="24"/>
       <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
-      <c r="B196" s="35"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="35"/>
+      <c r="I196" s="24"/>
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
-      <c r="B197" s="35"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
-      <c r="I197" s="35"/>
+      <c r="I197" s="24"/>
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
-      <c r="B198" s="35"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="35"/>
+      <c r="I198" s="24"/>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
-      <c r="B199" s="35"/>
+      <c r="B199" s="24"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="35"/>
+      <c r="I199" s="24"/>
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
-      <c r="B200" s="35"/>
+      <c r="B200" s="24"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="35"/>
+      <c r="I200" s="24"/>
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
-      <c r="B201" s="35"/>
+      <c r="B201" s="24"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
-      <c r="I201" s="35"/>
+      <c r="I201" s="24"/>
       <c r="J201" s="5"/>
     </row>
     <row r="202" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
-      <c r="B202" s="35"/>
+      <c r="B202" s="24"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
-      <c r="I202" s="35"/>
+      <c r="I202" s="24"/>
       <c r="J202" s="5"/>
     </row>
     <row r="203" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
-      <c r="B203" s="35"/>
+      <c r="B203" s="24"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="35"/>
+      <c r="I203" s="24"/>
       <c r="J203" s="5"/>
     </row>
     <row r="204" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
-      <c r="B204" s="35"/>
+      <c r="B204" s="24"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="35"/>
+      <c r="I204" s="24"/>
       <c r="J204" s="5"/>
     </row>
     <row r="205" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
-      <c r="B205" s="35"/>
+      <c r="B205" s="24"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="35"/>
+      <c r="I205" s="24"/>
       <c r="J205" s="5"/>
     </row>
     <row r="206" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
-      <c r="B206" s="35"/>
+      <c r="B206" s="24"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="35"/>
+      <c r="I206" s="24"/>
       <c r="J206" s="5"/>
     </row>
     <row r="207" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
-      <c r="B207" s="35"/>
+      <c r="B207" s="24"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="35"/>
+      <c r="I207" s="24"/>
       <c r="J207" s="5"/>
     </row>
     <row r="208" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
-      <c r="B208" s="35"/>
+      <c r="B208" s="24"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="35"/>
+      <c r="I208" s="24"/>
       <c r="J208" s="5"/>
     </row>
     <row r="209" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
-      <c r="B209" s="35"/>
+      <c r="B209" s="24"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="35"/>
+      <c r="I209" s="24"/>
       <c r="J209" s="5"/>
     </row>
     <row r="210" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
-      <c r="B210" s="35"/>
+      <c r="B210" s="24"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="35"/>
+      <c r="I210" s="24"/>
       <c r="J210" s="5"/>
     </row>
     <row r="211" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
-      <c r="B211" s="35"/>
+      <c r="B211" s="24"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
-      <c r="I211" s="35"/>
+      <c r="I211" s="24"/>
       <c r="J211" s="5"/>
     </row>
     <row r="212" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
-      <c r="B212" s="35"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="35"/>
+      <c r="I212" s="24"/>
       <c r="J212" s="5"/>
     </row>
     <row r="213" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
-      <c r="B213" s="35"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
-      <c r="I213" s="35"/>
+      <c r="I213" s="24"/>
       <c r="J213" s="5"/>
     </row>
     <row r="214" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
-      <c r="B214" s="35"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
-      <c r="I214" s="35"/>
+      <c r="I214" s="24"/>
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
-      <c r="B215" s="35"/>
+      <c r="B215" s="24"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
-      <c r="I215" s="35"/>
+      <c r="I215" s="24"/>
       <c r="J215" s="5"/>
     </row>
     <row r="216" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
-      <c r="B216" s="35"/>
+      <c r="B216" s="24"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
-      <c r="I216" s="35"/>
+      <c r="I216" s="24"/>
       <c r="J216" s="5"/>
     </row>
     <row r="217" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
-      <c r="B217" s="35"/>
+      <c r="B217" s="24"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
-      <c r="I217" s="35"/>
+      <c r="I217" s="24"/>
       <c r="J217" s="5"/>
     </row>
     <row r="218" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
-      <c r="B218" s="35"/>
+      <c r="B218" s="24"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="35"/>
+      <c r="I218" s="24"/>
       <c r="J218" s="5"/>
     </row>
     <row r="219" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
-      <c r="B219" s="35"/>
+      <c r="B219" s="24"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
-      <c r="I219" s="35"/>
+      <c r="I219" s="24"/>
       <c r="J219" s="5"/>
     </row>
     <row r="220" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
-      <c r="B220" s="35"/>
+      <c r="B220" s="24"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
-      <c r="I220" s="35"/>
+      <c r="I220" s="24"/>
       <c r="J220" s="5"/>
     </row>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H20" r:id="rId2" display="mailto:sai.kutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H21" r:id="rId3" display="mailto:sai.kutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H22" r:id="rId4" display="mailto:sai.kutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H41" r:id="rId21" display="mailto:saikutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3789,6 +5601,906 @@
     <row r="98" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3796,14 +6508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3906,6 +6618,906 @@
     <row r="98" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Testcase_Template.xlsx
+++ b/Testcase_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C715DE-E5A2-40B4-AE5F-9201D3673163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA09595-7986-4D0B-87F6-9E37D9010794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Template Example" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="127">
   <si>
     <t>Your Company LOGO</t>
   </si>
@@ -144,123 +144,30 @@
 disabled submit button.</t>
   </si>
   <si>
-    <t>Sai Kutthalingam S</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
-    <t>Sign up</t>
-  </si>
-  <si>
-    <t>TS_002</t>
-  </si>
-  <si>
-    <t>Verify the lastname field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Any browser should be installed at user side
-2. A good internet connection is needed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in lastname field
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Invalid last name</t>
-  </si>
-  <si>
     <t>TC_004</t>
   </si>
   <si>
     <t>TC_005</t>
   </si>
   <si>
-    <t>It need to display: 
-valid last name</t>
-  </si>
-  <si>
-    <t>`s`</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>TC_006</t>
   </si>
   <si>
-    <t>TS_003</t>
-  </si>
-  <si>
-    <t>Verify the email field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in email field
-</t>
-  </si>
-  <si>
-    <t>It need to display: 
-Invalid email id</t>
-  </si>
-  <si>
-    <t>`sai`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Invalid email id</t>
-  </si>
-  <si>
     <t>TC_007</t>
   </si>
   <si>
-    <t>empty string</t>
-  </si>
-  <si>
     <t>TC_008</t>
   </si>
   <si>
-    <t>`saiakash12345678910
-11121314151`</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
-    <t>It need to display: 
-valid email id</t>
-  </si>
-  <si>
-    <t>sai.kutthalingam
-@changepond.com</t>
-  </si>
-  <si>
     <t>TC_010</t>
   </si>
   <si>
-    <t>TS_004</t>
-  </si>
-  <si>
-    <t>Verify the contact number field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in contact number field
-</t>
-  </si>
-  <si>
     <t>TC_011</t>
   </si>
   <si>
@@ -270,243 +177,25 @@
     <t>TC_013</t>
   </si>
   <si>
-    <t>TS_005</t>
-  </si>
-  <si>
-    <t>Verify the password field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in password field
-</t>
-  </si>
-  <si>
-    <t>It need to display: 
-Invalid password</t>
-  </si>
-  <si>
-    <t>akash</t>
-  </si>
-  <si>
     <t>TC_014</t>
   </si>
   <si>
-    <t>akash12345678910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Invalid password</t>
-  </si>
-  <si>
     <t>TC_015</t>
   </si>
   <si>
-    <t>akash@123</t>
-  </si>
-  <si>
     <t>TC_016</t>
   </si>
   <si>
-    <t>SAKASH@124</t>
-  </si>
-  <si>
     <t>TC_017</t>
   </si>
   <si>
-    <t>Saiakash125</t>
-  </si>
-  <si>
     <t>TC_018</t>
   </si>
   <si>
-    <t>TS_006</t>
-  </si>
-  <si>
-    <t>Verify the confirm password field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in confirm password field
-</t>
-  </si>
-  <si>
-    <t>It need to display: 
-password doesn’t match</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-password doesn’t match</t>
-  </si>
-  <si>
     <t>TC_019</t>
   </si>
   <si>
-    <t>TC_020</t>
-  </si>
-  <si>
-    <t>sai123</t>
-  </si>
-  <si>
-    <t>TC_021</t>
-  </si>
-  <si>
-    <t>TS_007</t>
-  </si>
-  <si>
-    <t>Verify the select role field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in select role field
-</t>
-  </si>
-  <si>
-    <t>It need to display: 
-Please fill out this field</t>
-  </si>
-  <si>
-    <t>not select any role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Please fill out this field</t>
-  </si>
-  <si>
-    <t>TC_022</t>
-  </si>
-  <si>
-    <t>TS_008</t>
-  </si>
-  <si>
-    <t>Verify the select branch field in sign up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click sign up and select student option
-5. Give necessary value in select branch field
-</t>
-  </si>
-  <si>
-    <t>not select any branch</t>
-  </si>
-  <si>
-    <t>TC_023</t>
-  </si>
-  <si>
-    <t>It need to display: 
-enter value is not a branch state (or) city</t>
-  </si>
-  <si>
-    <t>csk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-valid</t>
-  </si>
-  <si>
-    <t>TC_024</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>TS_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the email address field in login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click login
-5. Give necessary value in email address field
-</t>
-  </si>
-  <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>TC_025</t>
-  </si>
-  <si>
-    <t>TC_026</t>
-  </si>
-  <si>
-    <t>saiakash12345678910111213141516</t>
-  </si>
-  <si>
-    <t>TC_027</t>
-  </si>
-  <si>
-    <t>saikutthalingam@changepond.com</t>
-  </si>
-  <si>
-    <t>TC_028</t>
-  </si>
-  <si>
-    <t>TS_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the password field in login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click login
-5. Give necessary value in password field
-</t>
-  </si>
-  <si>
-    <t>TC_029</t>
-  </si>
-  <si>
-    <t>saiA</t>
-  </si>
-  <si>
-    <t>TC_030</t>
-  </si>
-  <si>
     <t>Voucher Code</t>
-  </si>
-  <si>
-    <t>TS_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the enter voucher code field in login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open user device
-2. Open browser
-3. Type hematite quiz and click on the url and click the link
-4. Click login
-5. Give necessary value in enter voucher code field
-</t>
-  </si>
-  <si>
-    <t>It need to display: 
-Invalid Voucher</t>
-  </si>
-  <si>
-    <t>TC_031</t>
-  </si>
-  <si>
-    <t>TC_032</t>
   </si>
   <si>
     <t>First Name : Bejesh
@@ -565,9 +254,30 @@
 5. Filling valid details elsewere</t>
   </si>
   <si>
+    <t>Student types in all the valid details in First Name, Last Name, Email, Password, confirm password, select Role, Branch, Gender except Contact Number and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Filling invalid Contact Number
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
     <t>First Name : Bejesh
 Last Name : Sriram
-Email: 
+Email: bejeshsriram2808@gmail.com
+Contact Number: 
+Password: Bejesh288
+Confirm Password: Bejesh288
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email:
 Contact Number: 8608925121
 Password: Bejesh288
 Confirm Password: Bejesh288
@@ -575,12 +285,296 @@
 Select Branch: Selct other, type Changepond
 Select Gender: Select male</t>
   </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Last Name, Email, Contact Number , confirm password, select Role, Branch, Gender except  Password and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Filling invalid Password
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: 
+Confirm Password: Bejesh288
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Last Name, Email, Contact Number , password, select Role, Branch, Gender except confirm Password and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Filling invalid Confirm Password
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh
+Select Role: Select student
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Last Name, Email, Contact Number , password, confirm password,  Branch, Gender except not selecting Role and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Not Selecting Role
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh
+Select Role: 
+Select Branch: Selct other, type Changepond
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Last Name, Email, Contact Number , password, confirm password, Role,  Gender except not selecting  Branch and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Not Selecting branch
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t>First Name : Bejesh
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh
+Select Role: Student
+Select Branch: 
+Select Gender: Select male</t>
+  </si>
+  <si>
+    <t>Student types in all the valid details in First Name, Last Name, Email, Contact Number , password, confirm password, Role, Branch except not selecting  Gender and clicks the submit button.</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. click on SIGN UP button, select Student.
+4. Not Selecting  Gender
+5. Filling valid details elsewere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name : Bejesh
+Last Name : Sriram
+Email: bejeshsriram2808@gmail.com
+Contact Number: 8608925121
+Password: Bejesh288
+Confirm Password: Bejesh
+Select Role: Student
+Select Branch: Selct other, type Changepond
+Select Gender: </t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>TS_003 Verify successsull sign in</t>
+  </si>
+  <si>
+    <t>Student types in the valid email address and  password and clicks the sign in button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Fill the email and password 
+4. Click sign in</t>
+  </si>
+  <si>
+    <t>Student must be able to successfully sign in using valid credentials</t>
+  </si>
+  <si>
+    <t>Email: bejeshsriram288@gmail.com
+Password: Bejesh288</t>
+  </si>
+  <si>
+    <t>Successful sign in</t>
+  </si>
+  <si>
+    <t>TS_004 failed sign in</t>
+  </si>
+  <si>
+    <t>Student types in invalid email address and  correct password and clicks the sign in button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Fill in wrong email.
+4. Fill in correct password 
+5. Click sign in</t>
+  </si>
+  <si>
+    <t>Email: bejeshsriram288
+Password: Bejesh288</t>
+  </si>
+  <si>
+    <t>Invalid email</t>
+  </si>
+  <si>
+    <t>Student types in valid email address and  invalid password and clicks the sign in button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Fill in correct email.
+4. Fill in wrong password 
+5. Click sign in</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
+  </si>
+  <si>
+    <t>Student types in unregistered email address and  invalid password and clicks the sign in button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Fill in unregistered email.
+4. Fill in wrong password 
+5. Click sign in</t>
+  </si>
+  <si>
+    <t>No active account found with the given credentials</t>
+  </si>
+  <si>
+    <t>Email: bejeshsriram@gmail.com
+Password: Bejesh288</t>
+  </si>
+  <si>
+    <t>TS_005 Entering Voucher Code</t>
+  </si>
+  <si>
+    <t>Student types in valid Voucher Code and clicks the submit button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Student Sign ins.
+4. Fill in valid Voucher Code.
+5. Clicks submit</t>
+  </si>
+  <si>
+    <t>invalid Voucher</t>
+  </si>
+  <si>
+    <t>Voucher Code : 123465</t>
+  </si>
+  <si>
+    <t>Student types in invalid Voucher Code and clicks the submit button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Student Sign ins.
+4. Fill in invalid Voucher Code.
+5. Clicks submit</t>
+  </si>
+  <si>
+    <t>Takes to Exam Selection page</t>
+  </si>
+  <si>
+    <t>Voucher Code : Q87IBBu87</t>
+  </si>
+  <si>
+    <t>Exam Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_006 Exam List </t>
+  </si>
+  <si>
+    <t>Student selects a Exam to attend and clicks the next button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Student Sign ins.
+4. Fill in valid Voucher Code.
+5. Clicks submit
+6. Selects a Exam and Clicks next</t>
+  </si>
+  <si>
+    <t>Goes to Instruction page</t>
+  </si>
+  <si>
+    <t>Select Pre-assesment Test</t>
+  </si>
+  <si>
+    <t>Student not selecting a Exam to attend and clicks the next button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Student Sign ins.
+4. Fill in valid Voucher Code.
+5. Clicks submit
+6. without Selecting a Exam Clicks next</t>
+  </si>
+  <si>
+    <t>Prompt to select a Exam</t>
+  </si>
+  <si>
+    <t>Exam : --Select--</t>
+  </si>
+  <si>
+    <t>Quiz Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS_007 Attending Quiz </t>
+  </si>
+  <si>
+    <t>Student Attends the Quiz and clicks submit button</t>
+  </si>
+  <si>
+    <t>1. Open any browser
+2. Type quiz App url in Searchbox
+3. Student Sign ins.
+4. Fill in valid Voucher Code.
+5. Clicks submit
+6. Selecting a Exam Clicks next
+7. Then starts the Quiz and finished the Exam
+8.Clicks Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam Submitted Successfully.
+</t>
+  </si>
+  <si>
+    <t>Quiz App</t>
+  </si>
+  <si>
+    <t>V0.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -648,11 +642,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -675,6 +664,33 @@
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -690,7 +706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -790,17 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -815,65 +820,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF5B3F86"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5B3F86"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5B3F86"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5B3F86"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF442F65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -895,12 +851,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -911,27 +861,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,23 +892,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +967,7 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
   </tableColumns>
-  <tableStyleInfo name="Test Case Template Example-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1219,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1235,3443 +1187,3046 @@
     <col min="8" max="8" width="39.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="14" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="28" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="32" t="s">
+        <v>125</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="E1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
+      <c r="E2" s="7">
+        <v>45615</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="32" t="s">
+        <v>126</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="E3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="E4" s="7">
+        <v>45615</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="12"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="14"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="17"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="14"/>
+      <c r="L9"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="L10"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11"/>
     </row>
     <row r="12" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="34" t="s">
+      <c r="H12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="D14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="34" t="s">
+      <c r="F14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="34" t="s">
+      <c r="H14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="B21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="F21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="L21" s="29"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="B22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="B23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="B24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="B25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="B26" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="B27" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="B28" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="34" t="s">
+      <c r="B29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="35">
-        <v>910</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="35">
-        <v>934033590</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="35">
-        <v>93604459111</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" s="30"/>
-    </row>
-    <row r="39" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="35">
-        <v>123</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L41" s="30"/>
+      <c r="K29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="L41"/>
     </row>
     <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="5"/>
+      <c r="L42"/>
     </row>
     <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="5"/>
+      <c r="L43"/>
     </row>
     <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="5"/>
+      <c r="L44"/>
     </row>
     <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="5"/>
+      <c r="L45"/>
     </row>
     <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="5"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="5"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="5"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="5"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="5"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="5"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="5"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="5"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="5"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="5"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="5"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="5"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="5"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="5"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="5"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="5"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="5"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="5"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="5"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="5"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="5"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="5"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="5"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="5"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="5"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="5"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="5"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="5"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="5"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="5"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="5"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="5"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="5"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="5"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="5"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="5"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="5"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="5"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="5"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="5"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="5"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="5"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="5"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="5"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="5"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="5"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="5"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="5"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="5"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="5"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="5"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="5"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="5"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="5"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="5"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="5"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="5"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="5"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="5"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="5"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="5"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="5"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="5"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="5"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="5"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="5"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="5"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="5"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="5"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="5"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="5"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="5"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="5"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="5"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="4"/>
     </row>
     <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="5"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="4"/>
     </row>
     <row r="130" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="5"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="4"/>
     </row>
     <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="5"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="4"/>
     </row>
     <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="5"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="5"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="4"/>
     </row>
     <row r="134" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="5"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="4"/>
     </row>
     <row r="135" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="5"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="5"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="4"/>
     </row>
     <row r="137" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="5"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="4"/>
     </row>
     <row r="138" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="5"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="4"/>
     </row>
     <row r="139" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="5"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="4"/>
     </row>
     <row r="140" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="5"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="4"/>
     </row>
     <row r="141" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="5"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="4"/>
     </row>
     <row r="142" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="4"/>
     </row>
     <row r="143" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="5"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="4"/>
     </row>
     <row r="144" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="5"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="4"/>
     </row>
     <row r="145" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="5"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="4"/>
     </row>
     <row r="146" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="24"/>
-      <c r="J146" s="5"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="4"/>
     </row>
     <row r="147" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="24"/>
-      <c r="J147" s="5"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="4"/>
     </row>
     <row r="148" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="24"/>
-      <c r="J148" s="5"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="5"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="4"/>
     </row>
     <row r="150" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="5"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="4"/>
     </row>
     <row r="151" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="5"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="4"/>
     </row>
     <row r="152" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="5"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="4"/>
     </row>
     <row r="153" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="5"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="4"/>
     </row>
     <row r="154" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="5"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="4"/>
     </row>
     <row r="155" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="5"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="4"/>
     </row>
     <row r="156" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="5"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="4"/>
     </row>
     <row r="157" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="24"/>
-      <c r="J157" s="5"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="5"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="4"/>
     </row>
     <row r="159" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="5"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="4"/>
     </row>
     <row r="160" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="5"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="4"/>
     </row>
     <row r="161" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="5"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="4"/>
     </row>
     <row r="162" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="5"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="4"/>
     </row>
     <row r="163" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="24"/>
-      <c r="J163" s="5"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="4"/>
     </row>
     <row r="164" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="5"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="4"/>
     </row>
     <row r="165" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="5"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="4"/>
     </row>
     <row r="166" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="5"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="4"/>
     </row>
     <row r="167" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="5"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="4"/>
     </row>
     <row r="168" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="5"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="4"/>
     </row>
     <row r="169" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="24"/>
-      <c r="J169" s="5"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="4"/>
     </row>
     <row r="170" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="24"/>
-      <c r="J170" s="5"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="4"/>
     </row>
     <row r="171" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="5"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="4"/>
     </row>
     <row r="172" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="24"/>
-      <c r="J172" s="5"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="24"/>
-      <c r="J173" s="5"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="24"/>
-      <c r="J174" s="5"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="5"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="24"/>
-      <c r="J176" s="5"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="24"/>
-      <c r="J177" s="5"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="4"/>
     </row>
     <row r="178" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="5"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="4"/>
     </row>
     <row r="179" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="5"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="4"/>
     </row>
     <row r="180" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="24"/>
-      <c r="J180" s="5"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="4"/>
     </row>
     <row r="181" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="24"/>
-      <c r="J181" s="5"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="4"/>
     </row>
     <row r="182" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="24"/>
-      <c r="J182" s="5"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="4"/>
     </row>
     <row r="183" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="24"/>
-      <c r="J183" s="5"/>
+      <c r="A183" s="4"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="4"/>
     </row>
     <row r="184" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="24"/>
-      <c r="J184" s="5"/>
+      <c r="A184" s="4"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="24"/>
-      <c r="J185" s="5"/>
+      <c r="A185" s="4"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="4"/>
     </row>
     <row r="186" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="24"/>
-      <c r="J186" s="5"/>
+      <c r="A186" s="4"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="4"/>
     </row>
     <row r="187" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="24"/>
-      <c r="J187" s="5"/>
+      <c r="A187" s="4"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="4"/>
     </row>
     <row r="188" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="24"/>
-      <c r="J188" s="5"/>
+      <c r="A188" s="4"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="4"/>
     </row>
     <row r="189" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="24"/>
-      <c r="J189" s="5"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="4"/>
     </row>
     <row r="190" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="24"/>
-      <c r="J190" s="5"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="4"/>
     </row>
     <row r="191" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="24"/>
-      <c r="J191" s="5"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="4"/>
     </row>
     <row r="192" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="24"/>
-      <c r="J192" s="5"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="4"/>
     </row>
     <row r="193" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="24"/>
-      <c r="J193" s="5"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="4"/>
     </row>
     <row r="194" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="24"/>
-      <c r="J194" s="5"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="4"/>
     </row>
     <row r="195" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="24"/>
-      <c r="J195" s="5"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="4"/>
     </row>
     <row r="196" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="24"/>
-      <c r="J196" s="5"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="4"/>
     </row>
     <row r="197" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="24"/>
-      <c r="J197" s="5"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="4"/>
     </row>
     <row r="198" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="24"/>
-      <c r="J198" s="5"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="4"/>
     </row>
     <row r="199" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="24"/>
-      <c r="J199" s="5"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="4"/>
     </row>
     <row r="200" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="24"/>
-      <c r="J200" s="5"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="4"/>
     </row>
     <row r="201" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="24"/>
-      <c r="J201" s="5"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="4"/>
     </row>
     <row r="202" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="24"/>
-      <c r="J202" s="5"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="4"/>
     </row>
     <row r="203" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="24"/>
-      <c r="J203" s="5"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="4"/>
     </row>
     <row r="204" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="24"/>
-      <c r="J204" s="5"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="4"/>
     </row>
     <row r="205" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="24"/>
-      <c r="J205" s="5"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="4"/>
     </row>
     <row r="206" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="24"/>
-      <c r="J206" s="5"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="4"/>
     </row>
     <row r="207" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="24"/>
-      <c r="J207" s="5"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="4"/>
     </row>
     <row r="208" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="24"/>
-      <c r="J208" s="5"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="4"/>
     </row>
     <row r="209" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="24"/>
-      <c r="J209" s="5"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="4"/>
     </row>
     <row r="210" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="24"/>
-      <c r="J210" s="5"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="4"/>
     </row>
     <row r="211" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="24"/>
-      <c r="J211" s="5"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="4"/>
     </row>
     <row r="212" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="24"/>
-      <c r="J212" s="5"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="4"/>
     </row>
     <row r="213" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="24"/>
-      <c r="J213" s="5"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="4"/>
     </row>
     <row r="214" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="5"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="24"/>
-      <c r="J214" s="5"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="4"/>
     </row>
     <row r="215" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="24"/>
-      <c r="J215" s="5"/>
+      <c r="A215" s="4"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="4"/>
     </row>
     <row r="216" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="24"/>
-      <c r="J216" s="5"/>
+      <c r="A216" s="4"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="4"/>
     </row>
     <row r="217" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="24"/>
-      <c r="J217" s="5"/>
+      <c r="A217" s="4"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="4"/>
     </row>
     <row r="218" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="5"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="24"/>
-      <c r="J218" s="5"/>
+      <c r="A218" s="4"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="4"/>
     </row>
     <row r="219" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="24"/>
-      <c r="J219" s="5"/>
+      <c r="A219" s="4"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="4"/>
     </row>
     <row r="220" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="5"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="24"/>
-      <c r="J220" s="5"/>
+      <c r="A220" s="4"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="4"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5459,33 +5014,10 @@
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H20" r:id="rId2" display="mailto:sai.kutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H21" r:id="rId3" display="mailto:sai.kutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H22" r:id="rId4" display="mailto:sai.kutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H33" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H34" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H38" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H41" r:id="rId21" display="mailto:saikutthalingam@changepond.com" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
